--- a/quan.java/quan-config/excel/道具/装备1.xlsx
+++ b/quan.java/quan-config/excel/道具/装备1.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\IdeaProjects\quan\quan.java\config\excel\道具\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\IdeaProjects\quan\quan.java\quan-config\excel\道具\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5565D034-133F-48C2-93E6-9F26E3ADD9FF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="装备1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>ID</t>
   </si>
@@ -47,9 +46,6 @@
   </si>
   <si>
     <t>颜色</t>
-  </si>
-  <si>
-    <t>注释</t>
   </si>
   <si>
     <t>装备1</t>
@@ -92,7 +88,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1040,11 +1036,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1057,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1066,7 +1062,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -1084,7 +1080,7 @@
         <v>6</v>
       </c>
       <c r="K1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L1" t="s">
         <v>7</v>
@@ -1094,75 +1090,37 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>9</v>
+      <c r="A2">
+        <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" t="s">
         <v>14</v>
       </c>
-      <c r="I3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3">
+      <c r="K2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2">
         <v>1</v>
       </c>
-      <c r="M3">
+      <c r="M2">
         <v>2</v>
       </c>
     </row>
